--- a/bh3/558761548566313543_2021-08-14_18-00-11.xlsx
+++ b/bh3/558761548566313543_2021-08-14_18-00-11.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-20 12:22:34</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44428.5156712963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>5176742594</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:50:00</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44427.53472222222</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>5176742594</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:47:40</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44427.53310185186</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -772,10 +782,8 @@
           <t>5176742594</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:42:43</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44427.52966435185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -851,10 +859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:51:31</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44427.45244212963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -918,10 +924,8 @@
           <t>5194364418</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:35:01</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44426.85765046296</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -985,10 +989,8 @@
           <t>5157467833</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:31:49</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44426.85542824074</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>5159068627</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:08:29</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44426.67255787037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>5188788240</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:52:37</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44426.36987268519</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:19:22</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44425.68011574074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1273,10 +1269,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-17 09:15:37</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44425.38584490741</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1344,10 +1338,8 @@
           <t>5164968992</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-17 04:40:43</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44425.19494212963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1423,10 +1415,8 @@
           <t>5161088347</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-17 04:39:56</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44425.19439814815</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1502,10 +1492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:57:27</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44424.9565625</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1573,10 +1561,8 @@
           <t>5177748197</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:52:49</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44424.95334490741</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1644,10 +1630,8 @@
           <t>5177714240</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:48:44</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44424.95050925926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1715,10 +1699,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:47:45</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44424.94982638889</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1786,10 +1768,8 @@
           <t>5176984708</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:31:27</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44424.89684027778</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1853,10 +1833,8 @@
           <t>5176742594</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:05:25</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44424.87876157407</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1928,10 +1906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:39</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44424.86920138889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2007,10 +1983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:23:55</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44424.80827546296</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2078,10 +2052,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-16 19:21:44</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44424.80675925926</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2145,10 +2117,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-16 18:08:16</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44424.75574074074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2216,10 +2186,8 @@
           <t>5157589120</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-16 15:50:06</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44424.65979166667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2295,10 +2263,8 @@
           <t>5158161191</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-16 13:31:41</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44424.56366898148</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2370,10 +2336,8 @@
           <t>5172667478</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-16 12:43:44</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44424.53037037037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2449,10 +2413,8 @@
           <t>5172655856</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-16 12:41:37</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44424.52890046296</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2528,10 +2490,8 @@
           <t>5172630228</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-16 12:38:12</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44424.52652777778</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2607,10 +2567,8 @@
           <t>5172611239</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-16 12:36:48</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44424.52555555556</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2686,10 +2644,8 @@
           <t>5172373936</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-16 12:10:08</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44424.50703703704</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2757,10 +2713,8 @@
           <t>5172147182</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-16 11:41:16</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44424.48699074074</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2820,10 +2774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-16 11:17:18</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44424.47034722222</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2899,10 +2851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-16 08:12:51</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44424.34225694444</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2971,10 +2921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-15 22:06:13</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44423.9209837963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3042,10 +2990,8 @@
           <t>5168362880</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-15 21:43:41</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44423.90533564815</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3117,10 +3063,8 @@
           <t>5164968992</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-15 21:34:49</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44423.89917824074</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3192,10 +3136,8 @@
           <t>5164968992</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-15 21:17:02</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44423.8868287037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3263,10 +3205,8 @@
           <t>5158849806</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-15 20:57:10</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44423.87303240741</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3334,10 +3274,8 @@
           <t>5163465304</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-15 18:29:38</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44423.7705787037</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3401,10 +3339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-15 17:37:01</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44423.73403935185</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3480,10 +3416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-15 17:30:57</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44423.72982638889</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3547,10 +3481,8 @@
           <t>5166119389</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-15 17:22:21</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44423.72385416667</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3618,10 +3550,8 @@
           <t>5164968992</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-15 15:52:11</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44423.66123842593</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3693,10 +3623,8 @@
           <t>5164968992</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-15 15:46:30</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44423.65729166667</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3764,10 +3692,8 @@
           <t>5164968992</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-15 15:38:59</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44423.65207175926</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3839,10 +3765,8 @@
           <t>5164728743</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-15 14:41:31</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44423.61216435185</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3910,10 +3834,8 @@
           <t>5164988044</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-15 14:41:21</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44423.61204861111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3981,10 +3903,8 @@
           <t>5164988044</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-15 14:40:39</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44423.6115625</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4052,10 +3972,8 @@
           <t>5164968992</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-15 14:38:20</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44423.6099537037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4123,10 +4041,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-15 14:30:28</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44423.60449074074</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4194,10 +4110,8 @@
           <t>5164728743</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-15 14:03:46</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44423.58594907408</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4261,10 +4175,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-15 13:14:24</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44423.55166666667</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4340,10 +4252,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-15 13:14:02</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44423.55141203704</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4411,10 +4321,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-15 13:12:28</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44423.55032407407</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4490,10 +4398,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-15 13:10:00</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44423.54861111111</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4561,10 +4467,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-15 13:06:42</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44423.54631944445</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4640,10 +4544,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-15 12:57:50</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44423.54016203704</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4707,10 +4609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-15 12:29:15</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44423.5203125</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4786,10 +4686,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-15 12:26:53</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44423.51866898148</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4857,10 +4755,8 @@
           <t>5159068627</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-15 11:38:35</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44423.48512731482</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4936,10 +4832,8 @@
           <t>5163525839</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-15 11:29:31</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44423.47883101852</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5011,10 +4905,8 @@
           <t>5163465304</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-15 11:21:49</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44423.4734837963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5082,10 +4974,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-15 11:19:39</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44423.47197916666</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5153,10 +5043,8 @@
           <t>5163411578</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-15 11:14:46</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44423.46858796296</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5224,10 +5112,8 @@
           <t>5159068627</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-15 11:07:51</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44423.46378472223</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5295,10 +5181,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-15 09:13:53</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44423.3846412037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5366,10 +5250,8 @@
           <t>5162407360</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-15 08:36:02</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44423.35835648148</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5437,10 +5319,8 @@
           <t>5161088347</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-15 08:25:37</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44423.35112268518</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5512,10 +5392,8 @@
           <t>5159023873</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-15 08:23:41</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44423.34978009259</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5579,10 +5457,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-15 03:54:50</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44423.16307870371</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5658,10 +5534,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-15 03:47:33</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44423.15802083333</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5733,10 +5607,8 @@
           <t>5157542947</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-15 01:39:28</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44423.06907407408</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5800,10 +5672,8 @@
           <t>5158084616</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-15 00:40:54</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44423.02840277777</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5867,10 +5737,8 @@
           <t>5158380988</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-15 00:40:26</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44423.0280787037</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5934,10 +5802,8 @@
           <t>5161088347</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-15 00:30:27</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44423.02114583334</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6001,10 +5867,8 @@
           <t>5161086108</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-15 00:29:27</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44423.02045138889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6068,10 +5932,8 @@
           <t>5161001694</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-15 00:18:02</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44423.01252314815</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6131,10 +5993,8 @@
           <t>5160602098</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-14 23:31:40</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44422.98032407407</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6203,10 +6063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-14 23:22:16</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44422.9737962963</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6266,10 +6124,8 @@
           <t>5158027309</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-14 23:01:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44422.95908564814</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6341,10 +6197,8 @@
           <t>5158027309</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:59:27</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44422.95795138889</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6420,10 +6274,8 @@
           <t>5157489272</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:47:25</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44422.9495949074</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6495,10 +6347,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:44:16</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44422.94740740741</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6570,10 +6420,8 @@
           <t>5158246542</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:24:11</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44422.93346064815</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6637,10 +6485,8 @@
           <t>5158027309</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:22:01</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44422.93195601852</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6712,10 +6558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:18:56</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44422.92981481482</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6779,10 +6623,8 @@
           <t>5158027309</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:10:52</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44422.92421296296</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6858,10 +6700,8 @@
           <t>5159779458</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:10:36</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44422.92402777778</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6929,10 +6769,8 @@
           <t>5159786038</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:09:49</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44422.92348379629</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7000,10 +6838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:07:45</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44422.92204861111</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7075,10 +6911,8 @@
           <t>5157487459</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:02:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44422.91869212963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7146,10 +6980,8 @@
           <t>5159689867</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:01:02</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44422.91738425926</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7218,10 +7050,8 @@
           <t>5158975518</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:00:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44422.91674768519</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7289,10 +7119,8 @@
           <t>5159610592</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:52:32</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44422.91148148148</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7368,10 +7196,8 @@
           <t>5157531832</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:38:08</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44422.90148148148</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7439,10 +7265,8 @@
           <t>5159068627</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:38:08</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44422.90148148148</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7511,10 +7335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:35:30</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44422.89965277778</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7582,10 +7404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:35:03</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44422.89934027778</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7653,10 +7473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:34:10</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44422.89872685185</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7724,10 +7542,8 @@
           <t>5159023873</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:31:54</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44422.89715277778</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7791,10 +7607,8 @@
           <t>5159023873</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:27:17</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44422.89394675926</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7858,10 +7672,8 @@
           <t>5157489272</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:26:55</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44422.89369212963</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7925,10 +7737,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:17:41</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44422.88728009259</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7996,10 +7806,8 @@
           <t>5157489272</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:09:13</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44422.88140046296</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8071,10 +7879,8 @@
           <t>5158975518</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:09:08</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44422.88134259259</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8138,10 +7944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:06:06</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44422.87923611111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8205,10 +8009,8 @@
           <t>5159023873</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:06:01</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44422.87917824074</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8272,10 +8074,8 @@
           <t>5159124797</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:03:59</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44422.8777662037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8351,10 +8151,8 @@
           <t>5158975518</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:00:10</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44422.87511574074</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8426,10 +8224,8 @@
           <t>5159068627</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:58:37</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44422.87403935185</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8505,10 +8301,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:56:38</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44422.87266203704</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8584,10 +8378,8 @@
           <t>5158975518</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:54:47</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44422.87137731481</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8659,10 +8451,8 @@
           <t>5158032818</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:54:23</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44422.87109953703</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8735,10 +8525,8 @@
           <t>5158975518</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:54:08</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44422.87092592593</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8806,10 +8594,8 @@
           <t>5159023873</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:54:03</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44422.87086805556</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8873,10 +8659,8 @@
           <t>5157531832</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:53:53</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44422.87075231481</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8948,10 +8732,8 @@
           <t>5158975518</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:53:06</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44422.87020833333</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9019,10 +8801,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:52:25</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44422.86973379629</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9094,10 +8874,8 @@
           <t>5158975518</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:51:30</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44422.86909722222</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9169,10 +8947,8 @@
           <t>5158975518</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:48:52</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44422.86726851852</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9236,10 +9012,8 @@
           <t>5157489272</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:46:18</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44422.86548611111</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9303,10 +9077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:46:12</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44422.86541666667</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9370,10 +9142,8 @@
           <t>5158944794</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:45:53</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44422.86519675926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9437,10 +9207,8 @@
           <t>5158027309</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:45:52</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44422.86518518518</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9512,10 +9280,8 @@
           <t>5158027309</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:43:57</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44422.86385416667</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9583,10 +9349,8 @@
           <t>5157449859</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:40:45</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44422.86163194444</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9654,10 +9418,8 @@
           <t>5158884926</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:39:43</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44422.86091435186</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9721,10 +9483,8 @@
           <t>5158870040</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:36:48</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44422.85888888889</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9792,10 +9552,8 @@
           <t>5158849806</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:36:21</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44422.85857638889</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9867,10 +9625,8 @@
           <t>5158822945</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:32:33</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44422.8559375</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9942,10 +9698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:25:18</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44422.85090277778</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10009,10 +9763,8 @@
           <t>5157531832</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:21:49</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44422.8484837963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10080,10 +9832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:17:57</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44422.84579861111</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10159,10 +9909,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:15:31</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44422.84410879629</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10226,10 +9974,8 @@
           <t>5157596752</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:03:42</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44422.83590277778</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10308,10 +10054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:55:33</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44422.83024305556</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10375,10 +10119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:54:19</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44422.82938657407</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10442,10 +10184,8 @@
           <t>5157487459</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:53:00</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44422.82847222222</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10517,10 +10257,8 @@
           <t>5158161191</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:51:29</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44422.82741898148</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10589,10 +10327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:49:01</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44422.82570601852</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10656,10 +10392,8 @@
           <t>5157929163</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:48:17</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44422.82519675926</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10723,10 +10457,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:47:51</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44422.82489583334</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10798,10 +10530,8 @@
           <t>5157938336</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:46:45</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44422.82413194444</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10869,10 +10599,8 @@
           <t>5158087393</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:44:49</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44422.82278935185</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10948,10 +10676,8 @@
           <t>5158380988</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:43:52</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44422.82212962963</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11019,10 +10745,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:41:22</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44422.82039351852</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11094,10 +10818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:40:11</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44422.81957175926</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11161,10 +10883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:40:07</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44422.81952546296</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11232,10 +10952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:39:55</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44422.81938657408</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11299,10 +11017,8 @@
           <t>5157630936</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:39:48</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44422.81930555555</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11373,10 +11089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:39:40</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44422.81921296296</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11440,10 +11154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:39:13</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44422.81890046296</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11515,10 +11227,8 @@
           <t>5158087393</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:36:12</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44422.81680555556</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11594,10 +11304,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:36:00</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44422.81666666667</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11669,10 +11377,8 @@
           <t>5158305189</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:34:37</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44422.81570601852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11748,10 +11454,8 @@
           <t>5158284274</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:33:25</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44422.81487268519</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11827,10 +11531,8 @@
           <t>5157484685</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:32:53</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44422.81450231482</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11898,10 +11600,8 @@
           <t>5158282091</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:32:43</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44422.81438657407</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11973,10 +11673,8 @@
           <t>5157467833</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:32:32</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44422.81425925926</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12052,10 +11750,8 @@
           <t>5158087393</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:31:44</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44422.8137037037</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12131,10 +11827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:31:21</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44422.8134375</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12210,10 +11904,8 @@
           <t>5157531832</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:30:56</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44422.81314814815</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12283,10 +11975,8 @@
           <t>5158258726</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:30:30</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44422.81284722222</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12362,10 +12052,8 @@
           <t>5157555281</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:30:17</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44422.81269675926</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12433,10 +12121,8 @@
           <t>5157849225</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:30:13</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44422.81265046296</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12512,10 +12198,8 @@
           <t>5158246542</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:28:37</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44422.81153935185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12591,10 +12275,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:28:12</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44422.81125</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12666,10 +12348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:27:28</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44422.81074074074</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12745,10 +12425,8 @@
           <t>5157670532</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:26:36</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44422.81013888889</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12812,10 +12490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:25:25</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44422.80931712963</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12891,10 +12567,8 @@
           <t>5158191256</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:22:26</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44422.80724537037</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12962,10 +12636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:20:59</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44422.80623842592</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13037,10 +12709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:19:49</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44422.80542824074</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13116,10 +12786,8 @@
           <t>5158159077</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:19:47</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44422.80540509259</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13187,10 +12855,8 @@
           <t>5158161191</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:19:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44422.80513888889</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13262,10 +12928,8 @@
           <t>5158154967</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:19:16</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44422.80504629629</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13333,10 +12997,8 @@
           <t>5158160006</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:19:03</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44422.80489583333</v>
       </c>
       <c r="I178" t="n">
         <v>6</v>
@@ -13405,10 +13067,8 @@
           <t>5157776095</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:18:32</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44422.80453703704</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13480,10 +13140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:16:59</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44422.80346064815</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13555,10 +13213,8 @@
           <t>5158124639</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:16:06</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44422.80284722222</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13634,10 +13290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:15:48</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44422.80263888889</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13705,10 +13359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:14:24</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44422.80166666667</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13776,10 +13428,8 @@
           <t>5157776095</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:14:18</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44422.80159722222</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13847,10 +13497,8 @@
           <t>5157670532</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:14:17</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44422.80158564815</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13926,10 +13574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:13:24</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44422.80097222222</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13997,10 +13643,8 @@
           <t>5158087393</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:12:05</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44422.80005787037</v>
       </c>
       <c r="I187" t="n">
         <v>4</v>
@@ -14076,10 +13720,8 @@
           <t>5158084616</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:11:36</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44422.79972222223</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14151,10 +13793,8 @@
           <t>5157555281</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:11:28</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44422.79962962963</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14230,10 +13870,8 @@
           <t>5157776095</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:11:23</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44422.79957175926</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14301,10 +13939,8 @@
           <t>5158073560</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:10:45</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44422.79913194444</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14376,10 +14012,8 @@
           <t>5158080957</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:10:33</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44422.79899305556</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14455,10 +14089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:10:21</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44422.79885416666</v>
       </c>
       <c r="I193" t="n">
         <v>20</v>
@@ -14530,10 +14162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:09:51</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44422.79850694445</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14601,10 +14231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:09:22</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44422.79817129629</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14680,10 +14308,8 @@
           <t>5157776095</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:09:04</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44422.79796296296</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14755,10 +14381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:08:39</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44422.79767361111</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14822,10 +14446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:08:29</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44422.79755787037</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14893,10 +14515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:08:26</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44422.79752314815</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14968,10 +14588,8 @@
           <t>5158047805</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:08:02</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44422.79724537037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15039,10 +14657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:07:47</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44422.79707175926</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15102,10 +14718,8 @@
           <t>5158027309</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:07:33</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44422.79690972222</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15177,10 +14791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:07:17</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44422.79672453704</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15248,10 +14860,8 @@
           <t>5157757080</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:06:43</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44422.79633101852</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15323,10 +14933,8 @@
           <t>5158032818</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:06:34</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44422.79622685185</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15398,10 +15006,8 @@
           <t>5158036523</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:06:26</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44422.79613425926</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15473,10 +15079,8 @@
           <t>5157649636</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:06:24</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44422.79611111111</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15548,10 +15152,8 @@
           <t>5158036241</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:06:21</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44422.79607638889</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15619,10 +15221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:06:17</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44422.79603009259</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15686,10 +15286,8 @@
           <t>5158027309</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:05:13</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44422.79528935185</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15765,10 +15363,8 @@
           <t>5157776095</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:04:45</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44422.79496527778</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15840,10 +15436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:04:20</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44422.79467592593</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15919,10 +15513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:04:13</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44422.79459490741</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15998,10 +15590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:03:57</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44422.79440972222</v>
       </c>
       <c r="I214" t="n">
         <v>6</v>
@@ -16065,10 +15655,8 @@
           <t>5157584578</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:03:46</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44422.79428240741</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16140,10 +15728,8 @@
           <t>5157997032</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:02:15</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44422.79322916667</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16219,10 +15805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:02:09</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44422.79315972222</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16290,10 +15874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:01:54</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44422.79298611111</v>
       </c>
       <c r="I218" t="n">
         <v>2</v>
@@ -16361,10 +15943,8 @@
           <t>5157869255</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:00:14</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44422.7918287037</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -16428,10 +16008,8 @@
           <t>5157949065</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:57:47</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44422.79012731482</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16499,10 +16077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:57:46</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44422.79011574074</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16570,10 +16146,8 @@
           <t>5157938336</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:56:44</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44422.78939814815</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16641,10 +16215,8 @@
           <t>5157487459</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:56:26</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44422.78918981482</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16720,10 +16292,8 @@
           <t>5157555281</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:56:04</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44422.78893518518</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16791,10 +16361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:56:02</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44422.78891203704</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16866,10 +16434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:55:39</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44422.78864583333</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16937,10 +16503,8 @@
           <t>5157929163</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:55:25</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44422.7884837963</v>
       </c>
       <c r="I227" t="n">
         <v>5</v>
@@ -17012,10 +16576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:54:52</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44422.78810185185</v>
       </c>
       <c r="I228" t="n">
         <v>20</v>
@@ -17083,10 +16645,8 @@
           <t>5157909288</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:53:18</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44422.78701388889</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17154,10 +16714,8 @@
           <t>5157625170</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:52:56</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44422.78675925926</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17217,10 +16775,8 @@
           <t>5157625170</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:52:13</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44422.78626157407</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17293,10 +16849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:51:28</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44422.78574074074</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17372,10 +16926,8 @@
           <t>5157884850</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:50:51</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44422.7853125</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17439,10 +16991,8 @@
           <t>5157886371</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:50:21</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44422.78496527778</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17510,10 +17060,8 @@
           <t>5157484685</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:50:04</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44422.78476851852</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17577,10 +17125,8 @@
           <t>5157625170</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:49:37</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44422.78445601852</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17648,10 +17194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:49:28</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44422.78435185185</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17727,10 +17271,8 @@
           <t>5157869255</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:49:05</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44422.78408564815</v>
       </c>
       <c r="I238" t="n">
         <v>4</v>
@@ -17806,10 +17348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:48:42</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44422.78381944444</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17873,10 +17413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:48:41</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44422.78380787037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17944,10 +17482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:48:05</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44422.7833912037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18015,10 +17551,8 @@
           <t>5157870128</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:48:00</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44422.78333333333</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18090,10 +17624,8 @@
           <t>5157670532</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:47:34</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44422.78303240741</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18169,10 +17701,8 @@
           <t>5157849225</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:46:24</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44422.78222222222</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -18240,10 +17770,8 @@
           <t>5157849007</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:46:19</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44422.78216435185</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18307,10 +17835,8 @@
           <t>5157467833</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:45:22</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44422.78150462963</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -18378,10 +17904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:45:17</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44422.78144675926</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18453,10 +17977,8 @@
           <t>5157705635</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:45:14</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44422.78141203704</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18532,10 +18054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:44:50</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44422.78113425926</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18603,10 +18123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:43:29</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44422.78019675926</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18676,10 +18194,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:43:01</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44422.77987268518</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18743,10 +18259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:42:24</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44422.77944444444</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18818,10 +18332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:41:46</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44422.77900462963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18889,10 +18401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:41:37</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44422.77890046296</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18960,10 +18470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:41:37</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44422.77890046296</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19039,10 +18547,8 @@
           <t>5157802099</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:40:44</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44422.77828703704</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19118,10 +18624,8 @@
           <t>5157795958</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:40:05</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44422.77783564815</v>
       </c>
       <c r="I257" t="n">
         <v>2</v>
@@ -19189,10 +18693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:39:29</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44422.77741898148</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19256,10 +18758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:39:14</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44422.77724537037</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19323,10 +18823,8 @@
           <t>5157693607</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:37:59</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44422.77637731482</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19390,10 +18888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:37:36</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44422.77611111111</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19461,10 +18957,8 @@
           <t>5157776095</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:37:13</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44422.77584490741</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19532,10 +19026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:37:11</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44422.77582175926</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19603,10 +19095,8 @@
           <t>5157765580</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:36:55</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44422.77563657407</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19674,10 +19164,8 @@
           <t>5157765163</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:36:47</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44422.77554398148</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19745,10 +19233,8 @@
           <t>5157754296</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:36:34</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44422.77539351852</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19812,10 +19298,8 @@
           <t>5157757080</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:35:48</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44422.77486111111</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19883,10 +19367,8 @@
           <t>5157630936</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:35:30</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44422.77465277778</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19958,10 +19440,8 @@
           <t>5157743518</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:34:43</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44422.77410879629</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20029,10 +19509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:34:25</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44422.77390046296</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20104,10 +19582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:34:17</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44422.77380787037</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20175,10 +19651,8 @@
           <t>5157666309</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:33:30</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44422.77326388889</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20250,10 +19724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:33:22</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44422.7731712963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20321,10 +19793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:32:53</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44422.77283564815</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20400,10 +19870,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:32:43</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44422.77271990741</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20479,10 +19947,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:32:38</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44422.77266203704</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20558,10 +20024,8 @@
           <t>5157625170</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:32:29</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44422.77255787037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20621,10 +20085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:32:22</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44422.77247685185</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20689,10 +20151,8 @@
           <t>5157666309</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:31:58</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44422.77219907408</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20757,10 +20217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:31:31</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44422.77188657408</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20828,10 +20286,8 @@
           <t>5157666309</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:31:23</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44422.77179398148</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20909,10 +20365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:31:15</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44422.77170138889</v>
       </c>
       <c r="I282" t="n">
         <v>2</v>
@@ -20980,10 +20434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:31:11</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44422.77165509259</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21064,10 +20516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:30:42</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44422.77131944444</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21135,10 +20585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:30:04</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44422.77087962963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21202,10 +20650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:30:01</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44422.77084490741</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21273,10 +20719,8 @@
           <t>5157705810</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:29:51</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44422.77072916667</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21340,10 +20784,8 @@
           <t>5157705635</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:29:47</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44422.77068287037</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21415,10 +20857,8 @@
           <t>5157518302</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:29:40</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44422.77060185185</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21494,10 +20934,8 @@
           <t>5157693607</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:29:03</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44422.77017361111</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21569,10 +21007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:29:02</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44422.77016203704</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21640,10 +21076,8 @@
           <t>5157692704</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:28:43</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44422.76994212963</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21711,10 +21145,8 @@
           <t>5157684067</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:28:34</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44422.76983796297</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21778,10 +21210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:28:20</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44422.76967592593</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21845,10 +21275,8 @@
           <t>5157687313</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:28:07</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44422.76952546297</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21918,10 +21346,8 @@
           <t>5157531832</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:27:36</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44422.76916666667</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21989,10 +21415,8 @@
           <t>5157679394</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:27:31</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44422.7691087963</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22060,10 +21484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:27:28</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44422.76907407407</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22131,10 +21553,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:27:20</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44422.76898148148</v>
       </c>
       <c r="I299" t="n">
         <v>2</v>
@@ -22206,10 +21626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:27:17</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44422.76894675926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22286,10 +21704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:27:12</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44422.76888888889</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22353,10 +21769,8 @@
           <t>5157467833</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:26:53</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44422.76866898148</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22420,10 +21834,8 @@
           <t>5157676598</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:26:29</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44422.7683912037</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22491,10 +21903,8 @@
           <t>5157489272</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:26:25</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44422.76834490741</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22570,10 +21980,8 @@
           <t>5157666619</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:26:10</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44422.76817129629</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22642,10 +22050,8 @@
           <t>5157666309</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:26:05</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44422.76811342593</v>
       </c>
       <c r="I306" t="n">
         <v>6</v>
@@ -22717,10 +22123,8 @@
           <t>5157670532</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:26:03</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44422.76809027778</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22796,10 +22200,8 @@
           <t>5157664906</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:25:51</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44422.76795138889</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22867,10 +22269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:25:42</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44422.76784722223</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22934,10 +22334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:25:37</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44422.76778935185</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23005,10 +22403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:25:18</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44422.76756944445</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23080,10 +22476,8 @@
           <t>5157467833</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:24:55</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44422.76730324074</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23155,10 +22549,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:24:35</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44422.76707175926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23230,10 +22622,8 @@
           <t>5157649636</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:24:16</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44422.76685185185</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23305,10 +22695,8 @@
           <t>5157650104</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:24:09</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44422.76677083333</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23368,10 +22756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:23:38</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44422.76641203704</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23435,10 +22821,8 @@
           <t>5157487459</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:23:29</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44422.76630787037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23506,10 +22890,8 @@
           <t>5157489272</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:23:25</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44422.76626157408</v>
       </c>
       <c r="I318" t="n">
         <v>3</v>
@@ -23581,10 +22963,8 @@
           <t>5157646734</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:23:24</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44422.76625</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23660,10 +23040,8 @@
           <t>5157642193</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:23:15</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44422.76614583333</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23735,10 +23113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:23:10</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44422.76608796296</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23802,10 +23178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:23:05</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44422.76603009259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23869,10 +23243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:22:47</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44422.76582175926</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23948,10 +23320,8 @@
           <t>5157634549</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:22:47</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44422.76582175926</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24023,10 +23393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:22:29</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44422.76561342592</v>
       </c>
       <c r="I325" t="n">
         <v>2</v>
@@ -24094,10 +23462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:22:21</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44422.76552083333</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24161,10 +23527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:21:48</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44422.76513888889</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24240,10 +23604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:21:44</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44422.76509259259</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24315,10 +23677,8 @@
           <t>5157630936</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:21:44</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44422.76509259259</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24386,10 +23746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:21:31</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44422.76494212963</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24453,10 +23811,8 @@
           <t>5157625170</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:21:04</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44422.76462962963</v>
       </c>
       <c r="I331" t="n">
         <v>9</v>
@@ -24520,10 +23876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:21:01</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44422.76459490741</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24591,10 +23945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:20:47</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44422.76443287037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24658,10 +24010,8 @@
           <t>5157613606</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:20:36</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44422.76430555555</v>
       </c>
       <c r="I334" t="n">
         <v>9</v>
@@ -24729,10 +24079,8 @@
           <t>5157603889</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:19:40</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44422.76365740741</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24800,10 +24148,8 @@
           <t>5157467833</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:19:39</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44422.76364583334</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -24876,10 +24222,8 @@
           <t>5157606501</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:19:25</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44422.7634837963</v>
       </c>
       <c r="I337" t="n">
         <v>3</v>
@@ -24943,10 +24287,8 @@
           <t>5157602050</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:19:08</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44422.76328703704</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25014,10 +24356,8 @@
           <t>5157487459</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:47</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44422.76304398148</v>
       </c>
       <c r="I339" t="n">
         <v>22</v>
@@ -25085,10 +24425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:41</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44422.76297453704</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25164,10 +24502,8 @@
           <t>5157596752</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:30</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44422.76284722222</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25235,10 +24571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:29</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44422.76283564815</v>
       </c>
       <c r="I342" t="n">
         <v>3</v>
@@ -25310,10 +24644,8 @@
           <t>5157593269</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:17</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44422.76269675926</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25389,10 +24721,8 @@
           <t>5157589120</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:16</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44422.76268518518</v>
       </c>
       <c r="I344" t="n">
         <v>4</v>
@@ -25456,10 +24786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:09</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44422.76260416667</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25531,10 +24859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:09</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44422.76260416667</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25598,10 +24924,8 @@
           <t>5157588601</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:07</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44422.76258101852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25673,10 +24997,8 @@
           <t>5157588556</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:06</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44422.76256944444</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25740,10 +25062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:02</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44422.76252314815</v>
       </c>
       <c r="I349" t="n">
         <v>2</v>
@@ -25811,10 +25131,8 @@
           <t>5157584578</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:17:48</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44422.76236111111</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25882,10 +25200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:17:41</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44422.76228009259</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25964,10 +25280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:17:33</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44422.7621875</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26035,10 +25349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:17:25</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44422.7620949074</v>
       </c>
       <c r="I353" t="n">
         <v>10</v>
@@ -26106,10 +25418,8 @@
           <t>5157585751</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:17:17</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44422.76200231481</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26169,10 +25479,8 @@
           <t>5157582155</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:17:03</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44422.76184027778</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26244,10 +25552,8 @@
           <t>5157579114</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:16:47</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44422.7616550926</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26319,10 +25625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:16:13</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44422.76126157407</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26390,10 +25694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:16:12</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44422.76125</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26461,10 +25763,8 @@
           <t>5157571687</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:15:53</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44422.7610300926</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26528,10 +25828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:15:32</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44422.76078703703</v>
       </c>
       <c r="I360" t="n">
         <v>6</v>
@@ -26607,10 +25905,8 @@
           <t>5157566022</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:15:10</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44422.76053240741</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26670,10 +25966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:14:32</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44422.76009259259</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26749,10 +26043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:14:10</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44422.75983796296</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26820,10 +26112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:14:07</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44422.75980324074</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26900,10 +26190,8 @@
           <t>5157542947</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:14:02</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44422.75974537037</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26979,10 +26267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:13:42</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44422.75951388889</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27050,10 +26336,8 @@
           <t>5157555530</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:13:42</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44422.75951388889</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27117,10 +26401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:13:41</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44422.75950231482</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27184,10 +26466,8 @@
           <t>5157555281</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:13:37</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44422.75945601852</v>
       </c>
       <c r="I369" t="n">
         <v>4</v>
@@ -27263,10 +26543,8 @@
           <t>5157518302</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:13:25</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44422.75931712963</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27344,10 +26622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:13:23</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44422.75929398148</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27415,10 +26691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:13:12</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44422.75916666666</v>
       </c>
       <c r="I372" t="n">
         <v>2</v>
@@ -27486,10 +26760,8 @@
           <t>5157543616</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:54</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44422.75895833333</v>
       </c>
       <c r="I373" t="n">
         <v>5</v>
@@ -27553,10 +26825,8 @@
           <t>5157543224</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:47</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44422.75887731482</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27632,10 +26902,8 @@
           <t>5157542947</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:41</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44422.75880787037</v>
       </c>
       <c r="I375" t="n">
         <v>9</v>
@@ -27711,10 +26979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:37</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44422.75876157408</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27782,10 +27048,8 @@
           <t>5157534325</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:25</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44422.75862268519</v>
       </c>
       <c r="I377" t="n">
         <v>4</v>
@@ -27861,10 +27125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:17</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44422.75853009259</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27937,10 +27199,8 @@
           <t>5157541494</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:16</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44422.75851851852</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28016,10 +27276,8 @@
           <t>5157541113</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:09</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44422.7584375</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28095,10 +27353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:53</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44422.75825231482</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28174,10 +27430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:42</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44422.758125</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28243,10 +27497,8 @@
           <t>5157531832</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:42</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44422.758125</v>
       </c>
       <c r="I383" t="n">
         <v>76</v>
@@ -28318,10 +27570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:38</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44422.7580787037</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28389,10 +27639,8 @@
           <t>5157531286</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:32</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44422.75800925926</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28460,10 +27708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:30</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44422.75798611111</v>
       </c>
       <c r="I386" t="n">
         <v>129</v>
@@ -28527,10 +27773,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:06</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44422.75770833333</v>
       </c>
       <c r="I387" t="n">
         <v>10</v>
@@ -28594,10 +27838,8 @@
           <t>5157487459</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:00</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44422.75763888889</v>
       </c>
       <c r="I388" t="n">
         <v>37</v>
@@ -28665,10 +27907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:56</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44422.75759259259</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28733,10 +27973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:52</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44422.7575462963</v>
       </c>
       <c r="I390" t="n">
         <v>71</v>
@@ -28812,10 +28050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:52</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44422.7575462963</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28891,10 +28127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:47</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44422.75748842592</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -28962,10 +28196,8 @@
           <t>5157518302</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:42</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44422.75743055555</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29037,10 +28269,8 @@
           <t>5157521643</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:39</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44422.75739583333</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29112,10 +28342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:38</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44422.75738425926</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29179,10 +28407,8 @@
           <t>5157517882</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:35</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44422.75734953704</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29258,10 +28484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:32</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44422.75731481481</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29325,10 +28549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:25</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44422.7572337963</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29392,10 +28614,8 @@
           <t>5157516402</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:09</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44422.75704861111</v>
       </c>
       <c r="I399" t="n">
         <v>24</v>
@@ -29467,10 +28687,8 @@
           <t>5157513485</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:09:54</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44422.756875</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29534,10 +28752,8 @@
           <t>5157504754</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:09:40</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44422.75671296296</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29605,10 +28821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:09:22</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44422.75650462963</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29680,10 +28894,8 @@
           <t>5157511528</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:09:17</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44422.75644675926</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29747,10 +28959,8 @@
           <t>5157467833</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:09:16</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44422.75643518518</v>
       </c>
       <c r="I404" t="n">
         <v>8</v>
@@ -29826,10 +29036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:08:49</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44422.75612268518</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29897,10 +29105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:08:29</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44422.75589120371</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29976,10 +29182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:08:26</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44422.75585648148</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -30055,10 +29259,8 @@
           <t>5157489272</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:08:02</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44422.75557870371</v>
       </c>
       <c r="I408" t="n">
         <v>6</v>
@@ -30134,10 +29336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:07:50</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44422.75543981481</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30201,10 +29401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:07:44</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44422.75537037037</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30272,10 +29470,8 @@
           <t>5157492151</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:07:26</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44422.75516203704</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30351,10 +29547,8 @@
           <t>5157487459</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:07:23</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44422.75512731481</v>
       </c>
       <c r="I412" t="n">
         <v>16</v>
@@ -30430,10 +29624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:07:19</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44422.75508101852</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30509,10 +29701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:07:18</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44422.75506944444</v>
       </c>
       <c r="I414" t="n">
         <v>4</v>
@@ -30588,10 +29778,8 @@
           <t>5157484685</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:07:12</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44422.755</v>
       </c>
       <c r="I415" t="n">
         <v>30</v>
@@ -30663,10 +29851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:06:56</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44422.75481481481</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30731,10 +29917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:06:55</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44422.75480324074</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30810,10 +29994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:06:46</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44422.75469907407</v>
       </c>
       <c r="I418" t="n">
         <v>4</v>
@@ -30891,10 +30073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:06:37</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44422.7545949074</v>
       </c>
       <c r="I419" t="n">
         <v>40</v>
@@ -30966,10 +30146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:06:36</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44422.75458333334</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31033,10 +30211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:06:25</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44422.75445601852</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31108,10 +30284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:58</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44422.75414351852</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31175,10 +30349,8 @@
           <t>5157480601</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:58</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44422.75414351852</v>
       </c>
       <c r="I423" t="n">
         <v>8</v>
@@ -31246,10 +30418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:51</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44422.7540625</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31321,10 +30491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:39</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44422.75392361111</v>
       </c>
       <c r="I425" t="n">
         <v>154</v>
@@ -31388,10 +30556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:37</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44422.75390046297</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31467,10 +30633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:22</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44422.75372685185</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31546,10 +30710,8 @@
           <t>5157467833</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:09</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44422.75357638889</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31621,10 +30783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:02</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44422.75349537037</v>
       </c>
       <c r="I429" t="n">
         <v>7</v>
@@ -31700,10 +30860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:04:49</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44422.75334490741</v>
       </c>
       <c r="I430" t="n">
         <v>44</v>
@@ -31767,10 +30925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:04:48</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44422.75333333333</v>
       </c>
       <c r="I431" t="n">
         <v>3</v>
@@ -31846,10 +31002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:04:26</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44422.7530787037</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31913,10 +31067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:04:12</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44422.75291666666</v>
       </c>
       <c r="I433" t="n">
         <v>2</v>
@@ -31992,10 +31144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:04:06</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44422.75284722223</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32068,10 +31218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:04:00</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44422.75277777778</v>
       </c>
       <c r="I435" t="n">
         <v>191</v>
@@ -32143,10 +31291,8 @@
           <t>5157449859</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:03:55</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44422.75271990741</v>
       </c>
       <c r="I436" t="n">
         <v>4</v>
@@ -32210,10 +31356,8 @@
           <t>5157447051</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:03:07</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44422.75216435185</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32277,10 +31421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:03:04</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44422.75212962963</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32348,10 +31490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:02:38</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44422.7518287037</v>
       </c>
       <c r="I439" t="n">
         <v>71</v>
@@ -32419,10 +31559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:02:01</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44422.75140046296</v>
       </c>
       <c r="I440" t="n">
         <v>327</v>
@@ -32486,10 +31624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:01:46</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44422.75122685185</v>
       </c>
       <c r="I441" t="n">
         <v>93</v>
@@ -32557,10 +31693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:01:44</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44422.7512037037</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32628,10 +31762,8 @@
           <t>5157440668</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:01:42</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44422.75118055556</v>
       </c>
       <c r="I443" t="n">
         <v>5</v>
@@ -32700,10 +31832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:01:32</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44422.75106481482</v>
       </c>
       <c r="I444" t="n">
         <v>4</v>
@@ -32767,10 +31897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:01:26</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44422.75099537037</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -32846,10 +31974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:01:17</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44422.7508912037</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32925,10 +32051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:00:59</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44422.75068287037</v>
       </c>
       <c r="I447" t="n">
         <v>238</v>
@@ -33000,10 +32124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:00:55</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44422.75063657408</v>
       </c>
       <c r="I448" t="n">
         <v>3</v>
@@ -33079,10 +32201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:00:54</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44422.750625</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33146,10 +32266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:00:54</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44422.750625</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33225,10 +32343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:00:46</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44422.75053240741</v>
       </c>
       <c r="I451" t="n">
         <v>342</v>
@@ -33296,10 +32412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:00:37</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44422.75042824074</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
